--- a/data-engineering/market-share-computation.xlsx
+++ b/data-engineering/market-share-computation.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\ISB\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A66620-9AD9-4333-A2ED-3364DFB2A012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE64656C-BC84-43EB-A9F4-73E2652211D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{240406C4-3431-4739-BB94-18FB41A8552A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{240406C4-3431-4739-BB94-18FB41A8552A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original- City" sheetId="2" r:id="rId1"/>
+    <sheet name="Original- Store" sheetId="3" r:id="rId2"/>
+    <sheet name="Revised" sheetId="1" r:id="rId3"/>
+    <sheet name="Original- Store Type" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="54">
   <si>
     <t>City</t>
   </si>
@@ -217,7 +220,74 @@
     <t>Workings</t>
   </si>
   <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ijm </t>
+    </r>
+  </si>
+  <si>
+    <t>7=5 / 6</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
     <t>Outside Market</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>8=7-5</t>
+  </si>
+  <si>
+    <t>9=4/8</t>
   </si>
   <si>
     <r>
@@ -330,163 +400,37 @@
     <t>10=9-7</t>
   </si>
   <si>
-    <t>Sijm</t>
-  </si>
-  <si>
-    <t>11=4/9</t>
-  </si>
-  <si>
-    <t>St</t>
-  </si>
-  <si>
-    <t>Sijm=Qijm/St</t>
-  </si>
-  <si>
-    <t>Som</t>
-  </si>
-  <si>
-    <t>Som=So/St</t>
-  </si>
-  <si>
-    <t>12=10/9</t>
-  </si>
-  <si>
-    <t>13=11/12</t>
-  </si>
-  <si>
-    <t>Normalized Market share (Dependent variable)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ln(S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ijm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>om)</t>
-    </r>
-  </si>
-  <si>
-    <t>14=ln(13)</t>
-  </si>
-  <si>
-    <r>
-      <t>SQ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ijm </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>1. Normalized market share will be the depdendent variable in the ML Regression/XGBoost model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Sijm is the sum of market shares of all SKUs i in store j in market m</t>
-  </si>
-  <si>
-    <r>
-      <t>3. S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>om</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> referes to market share of outside good (market share going to competitors and consumers who would buy but are not buying now)</t>
-    </r>
-  </si>
-  <si>
-    <t>4. ln(0) is undefined. In order to overcome this limitation: a) to limit the analysis to only top-selling brands. b) to replace zero with a small positive value</t>
+    <t>11=4/10</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Store Type</t>
+  </si>
+  <si>
+    <t>Ethos</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>By predicting L, how to arrive at F?</t>
+  </si>
+  <si>
+    <t>How to convert from predicted market share to predicted quantity?</t>
+  </si>
+  <si>
+    <t>First we try to predict market share.</t>
   </si>
 </sst>
 </file>
@@ -555,6 +499,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -567,13 +518,6 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -645,10 +589,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -690,16 +634,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,6 +658,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,16 +668,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,22 +986,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E152CC-7DE8-4928-9247-0D1B860A8359}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF87A0EC-B942-4510-B9BF-09AA6C90FE34}">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5</v>
+      </c>
+      <c r="G32" s="17">
+        <v>6</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B33,D33))</f>
+        <v>M1I1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20">
+        <f>_xlfn.SINGLE(SUMIF($A$33:$A$40,CONCATENATE(B33,D33),$E$33:$E$40))</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B33,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" ref="H33:H40" si="0">F33/G33</f>
+        <v>12</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" ref="I33:I40" si="1">H33-F33</f>
+        <v>9</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" ref="J33:J40" si="2">E33/I33</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A40" si="3">_xlfn.SINGLE(CONCATENATE(B34,D34))</f>
+        <v>M1I2</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="20">
+        <v>2</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" ref="F34:F40" si="4">_xlfn.SINGLE(SUMIF($A$33:$A$40,CONCATENATE(B34,D34),$E$33:$E$40))</f>
+        <v>2</v>
+      </c>
+      <c r="G34" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B34,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f t="shared" si="3"/>
+        <v>M1I1</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B35,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f t="shared" si="3"/>
+        <v>M1I2</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G36" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B36,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f t="shared" si="3"/>
+        <v>M2I1</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="20">
+        <v>3</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G37" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B37,$C$14:D$15,2,FALSE))</f>
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="2"/>
+        <v>0.1607142857142857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f t="shared" si="3"/>
+        <v>M2I2</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G38" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B38,$C$14:D$15,2,FALSE))</f>
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="21">
+        <f t="shared" si="0"/>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="1"/>
+        <v>16.333333333333336</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="2"/>
+        <v>6.1224489795918359E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" si="3"/>
+        <v>M2I1</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="20">
+        <v>5</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B39,$C$14:D$15,2,FALSE))</f>
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="21">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="2"/>
+        <v>0.26785714285714285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f t="shared" si="3"/>
+        <v>M2I2</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="20">
+        <v>6</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G40" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B40,$C$14:D$15,2,FALSE))</f>
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="21">
+        <f t="shared" si="0"/>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" si="1"/>
+        <v>16.333333333333336</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="2"/>
+        <v>0.36734693877551017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC47F1-0340-46B7-8088-07D5A5BD8F25}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5</v>
+      </c>
+      <c r="I32" s="17">
+        <v>6</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B33,E33))</f>
+        <v>M1I1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>500000</v>
+      </c>
+      <c r="H33" s="20">
+        <f>SUMIF($C$33:$C$40,C33,$G$33:$G$40)</f>
+        <v>600000</v>
+      </c>
+      <c r="I33" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B33,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" ref="J33:J40" si="0">H33/I33</f>
+        <v>2400000</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" ref="K33:K40" si="1">J33-H33</f>
+        <v>1800000</v>
+      </c>
+      <c r="L33" s="22">
+        <f>G33/K33</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B34,E34))</f>
+        <v>M1I2</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="20">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>100000</v>
+      </c>
+      <c r="H34" s="20">
+        <f>SUMIF($C$33:$C$40,C34,$G$33:$G$40)</f>
+        <v>600000</v>
+      </c>
+      <c r="I34" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B34,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="0"/>
+        <v>2400000</v>
+      </c>
+      <c r="K34" s="21">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="L34" s="22">
+        <f>G34/K34</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B35,E35))</f>
+        <v>M1I1</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="20">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2500000</v>
+      </c>
+      <c r="H35" s="20">
+        <f>SUMIF($C$33:$C$40,C35,$G$33:$G$40)</f>
+        <v>5500000</v>
+      </c>
+      <c r="I35" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B35,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="0"/>
+        <v>22000000</v>
+      </c>
+      <c r="K35" s="21">
+        <f t="shared" si="1"/>
+        <v>16500000</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" ref="L35:L36" si="2">G35/K35</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B36,E36))</f>
+        <v>M1I2</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3000000</v>
+      </c>
+      <c r="H36" s="20">
+        <f>SUMIF($C$33:$C$40,C36,$G$33:$G$40)</f>
+        <v>5500000</v>
+      </c>
+      <c r="I36" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B36,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="0"/>
+        <v>22000000</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="1"/>
+        <v>16500000</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B37,E37))</f>
+        <v>M1I1</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="20">
+        <v>3</v>
+      </c>
+      <c r="H37" s="20">
+        <f>_xlfn.SINGLE(SUMIF($A$33:$A$40,CONCATENATE(B37,E37),$F$33:$F$40))</f>
+        <v>11</v>
+      </c>
+      <c r="I37" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B37,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="21">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K37" s="21">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="L37" s="22">
+        <f>F37/K37</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B38,E38))</f>
+        <v>M1I2</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <f>_xlfn.SINGLE(SUMIF($A$33:$A$40,CONCATENATE(B38,E38),$F$33:$F$40))</f>
+        <v>9</v>
+      </c>
+      <c r="I38" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B38,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="L38" s="22">
+        <f>F38/K38</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B39,E39))</f>
+        <v>M1I1</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="20">
+        <v>5</v>
+      </c>
+      <c r="H39" s="20">
+        <f>_xlfn.SINGLE(SUMIF($A$33:$A$40,CONCATENATE(B39,E39),$F$33:$F$40))</f>
+        <v>11</v>
+      </c>
+      <c r="I39" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B39,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="L39" s="22">
+        <f>F39/K39</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>_xlfn.SINGLE(CONCATENATE(B40,E40))</f>
+        <v>M1I2</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="20">
+        <v>6</v>
+      </c>
+      <c r="H40" s="20">
+        <f>_xlfn.SINGLE(SUMIF($A$33:$A$40,CONCATENATE(B40,E40),$F$33:$F$40))</f>
+        <v>9</v>
+      </c>
+      <c r="I40" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B40,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="L40" s="22">
+        <f>F40/K40</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E152CC-7DE8-4928-9247-0D1B860A8359}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
@@ -1070,12 +2514,8 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1088,12 +2528,8 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1106,12 +2542,8 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1124,12 +2556,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1142,12 +2570,8 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1160,14 +2584,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1178,12 +2598,8 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1196,12 +2612,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1212,14 +2624,10 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1230,12 +2638,8 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1246,12 +2650,8 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
@@ -1264,12 +2664,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1281,12 +2677,8 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
         <v>9</v>
@@ -1301,12 +2693,8 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1314,16 +2702,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
         <v>0</v>
       </c>
@@ -1336,20 +2724,20 @@
       <c r="F18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.35">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1362,10 +2750,10 @@
       <c r="F20" s="6">
         <v>1</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
@@ -1378,10 +2766,10 @@
       <c r="F21" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1394,10 +2782,10 @@
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1410,10 +2798,10 @@
       <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1426,10 +2814,10 @@
       <c r="F24" s="6">
         <v>3</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
@@ -1442,10 +2830,10 @@
       <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
         <v>10</v>
       </c>
@@ -1458,10 +2846,10 @@
       <c r="F26" s="6">
         <v>5</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1474,25 +2862,19 @@
       <c r="F27" s="6">
         <v>6</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
-      <c r="Q28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="Q29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1512,10 +2894,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>14</v>
@@ -1524,564 +2906,428 @@
         <v>15</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="14" t="s">
+      <c r="F31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5</v>
+      </c>
+      <c r="G32" s="18">
+        <v>6</v>
+      </c>
+      <c r="H32" s="18">
+        <v>7</v>
+      </c>
+      <c r="I32" s="17">
+        <v>8</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="25"/>
-    </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16">
-        <v>1</v>
-      </c>
-      <c r="C32" s="16">
-        <v>2</v>
-      </c>
-      <c r="D32" s="16">
-        <v>3</v>
-      </c>
-      <c r="E32" s="16">
-        <v>4</v>
-      </c>
-      <c r="F32" s="17">
-        <v>5</v>
-      </c>
-      <c r="G32" s="17">
-        <v>6</v>
-      </c>
-      <c r="H32" s="17">
-        <v>7</v>
-      </c>
-      <c r="I32" s="16">
-        <v>8</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="18" t="s">
+      <c r="L32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>_xlfn.SINGLE(CONCATENATE(B33,D33))</f>
         <v>M1I1</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="19">
+      <c r="D33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="20">
         <v>1</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="20">
         <f>_xlfn.SINGLE(SUMIF($B$33:$B$40,B33,$E$33:$E$40))</f>
         <v>5</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="20">
         <v>2</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="20">
         <f>_xlfn.SINGLE(SUMIF($C$33:$C$40,C33,$E$33:$E$40))</f>
         <v>3</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B33,$C$14:D$15,2,FALSE))</f>
         <v>0.25</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="21">
         <f>F33/I33/G33</f>
         <v>10</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="21">
         <f>J33-H33</f>
         <v>7</v>
       </c>
-      <c r="L33" s="24">
-        <f>E33/J33</f>
-        <v>0.1</v>
-      </c>
-      <c r="M33" s="24">
-        <f>K33/J33</f>
-        <v>0.7</v>
-      </c>
-      <c r="N33" s="21">
-        <f>L33/M33</f>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="O33" s="26">
-        <f>LN(N33)</f>
-        <v>-1.9459101490553132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L33" s="26">
+        <f>E33/K33</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A40" si="0">_xlfn.SINGLE(CONCATENATE(B34,D34))</f>
         <v>M1I2</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="20">
         <v>2</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="20">
         <f t="shared" ref="F34:F40" si="1">_xlfn.SINGLE(SUMIF($B$33:$B$40,B34,$E$33:$E$40))</f>
         <v>5</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="20">
         <v>2</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="20">
         <f t="shared" ref="H34:H40" si="2">_xlfn.SINGLE(SUMIF($C$33:$C$40,C34,$E$33:$E$40))</f>
         <v>3</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B34,$C$14:D$15,2,FALSE))</f>
         <v>0.25</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="21">
         <f t="shared" ref="J34:J40" si="3">F34/I34/G34</f>
         <v>10</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="21">
         <f t="shared" ref="K34:K40" si="4">J34-H34</f>
         <v>7</v>
       </c>
-      <c r="L34" s="24">
-        <f t="shared" ref="L34:L40" si="5">E34/J34</f>
-        <v>0.2</v>
-      </c>
-      <c r="M34" s="24">
-        <f t="shared" ref="M34:M40" si="6">K34/J34</f>
-        <v>0.7</v>
-      </c>
-      <c r="N34" s="24">
-        <f t="shared" ref="N34:N40" si="7">L34/M34</f>
-        <v>0.28571428571428575</v>
-      </c>
-      <c r="O34" s="26">
-        <f t="shared" ref="O34:O40" si="8">LN(N34)</f>
-        <v>-1.2527629684953678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L34" s="22">
+        <f t="shared" ref="L34:L40" si="5">E34/K34</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>M1I1</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="D35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20">
         <v>2</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="20">
         <v>2</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B35,$C$14:D$15,2,FALSE))</f>
         <v>0.25</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="21">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="22">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="M35" s="24">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="N35" s="24">
-        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="O35" s="26">
-        <f t="shared" si="8"/>
-        <v>-1.3862943611198906</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>M1I2</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="20">
         <v>0</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="20">
         <v>2</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B36,$C$14:D$15,2,FALSE))</f>
         <v>0.25</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="21">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M36" s="24">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="N36" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>M2I1</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="19">
-        <v>3</v>
-      </c>
-      <c r="F37" s="19">
+      <c r="D37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="20">
+        <v>3</v>
+      </c>
+      <c r="F37" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="20">
         <v>2</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B37,$C$14:D$15,2,FALSE))</f>
         <v>0.3</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="21">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="22">
         <f t="shared" si="5"/>
-        <v>0.12</v>
-      </c>
-      <c r="M37" s="24">
-        <f t="shared" si="6"/>
-        <v>0.84</v>
-      </c>
-      <c r="N37" s="24">
-        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O37" s="26">
-        <f t="shared" si="8"/>
-        <v>-1.9459101490553135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>M2I2</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="20">
         <v>1</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="20">
         <v>2</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B38,$C$14:D$15,2,FALSE))</f>
         <v>0.3</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="21">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="22">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="M38" s="24">
-        <f t="shared" si="6"/>
-        <v>0.84</v>
-      </c>
-      <c r="N38" s="24">
-        <f t="shared" si="7"/>
-        <v>4.7619047619047623E-2</v>
-      </c>
-      <c r="O38" s="26">
-        <f t="shared" si="8"/>
-        <v>-3.044522437723423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>M2I1</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="D39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="20">
         <v>5</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="20">
         <v>2</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B39,$C$14:D$15,2,FALSE))</f>
         <v>0.3</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="21">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="22">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="M39" s="24">
-        <f t="shared" si="6"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N39" s="24">
-        <f t="shared" si="7"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="O39" s="26">
-        <f t="shared" si="8"/>
-        <v>-1.0296194171811581</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>M2I2</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="20">
         <v>6</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="20">
         <v>2</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="22">
         <f>_xlfn.SINGLE(VLOOKUP(B40,$C$14:D$15,2,FALSE))</f>
         <v>0.3</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="21">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="22">
         <f t="shared" si="5"/>
-        <v>0.24</v>
-      </c>
-      <c r="M40" s="24">
-        <f t="shared" si="6"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N40" s="24">
-        <f t="shared" si="7"/>
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="O40" s="26">
-        <f t="shared" si="8"/>
-        <v>-0.84729786038720378</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
@@ -2089,4 +3335,805 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADF0F8D-C2FB-4E76-B8D9-EF9D32BF5451}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5</v>
+      </c>
+      <c r="I32" s="17">
+        <v>6</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>CONCATENATE(B33,D33)</f>
+        <v>M1Ethos</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>150000</v>
+      </c>
+      <c r="H33" s="20">
+        <f>SUMIF($A$33:$A$40,A33,$G$33:$G$40)</f>
+        <v>1550000</v>
+      </c>
+      <c r="I33" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B33,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" ref="J33:J40" si="0">H33/I33</f>
+        <v>6200000</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" ref="K33:K40" si="1">J33-H33</f>
+        <v>4650000</v>
+      </c>
+      <c r="L33" s="22">
+        <f>G33/K33</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A40" si="2">CONCATENATE(B34,D34)</f>
+        <v>M1Ethos</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="20">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>100000</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" ref="H34:H40" si="3">SUMIF($A$33:$A$40,A34,$G$33:$G$40)</f>
+        <v>1550000</v>
+      </c>
+      <c r="I34" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B34,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="0"/>
+        <v>6200000</v>
+      </c>
+      <c r="K34" s="21">
+        <f t="shared" si="1"/>
+        <v>4650000</v>
+      </c>
+      <c r="L34" s="22">
+        <f>G34/K34</f>
+        <v>2.1505376344086023E-2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>M1Summit</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="20">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>300000</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="3"/>
+        <v>10800000</v>
+      </c>
+      <c r="I35" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B35,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="0"/>
+        <v>43200000</v>
+      </c>
+      <c r="K35" s="21">
+        <f t="shared" si="1"/>
+        <v>32400000</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" ref="L35:L40" si="4">G35/K35</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>M1Summit</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="20">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3000000</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="3"/>
+        <v>10800000</v>
+      </c>
+      <c r="I36" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B36,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="0"/>
+        <v>43200000</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="1"/>
+        <v>32400000</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="4"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>M1Summit</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="20">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3500000</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="3"/>
+        <v>10800000</v>
+      </c>
+      <c r="I37" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B37,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="21">
+        <f t="shared" si="0"/>
+        <v>43200000</v>
+      </c>
+      <c r="K37" s="21">
+        <f t="shared" si="1"/>
+        <v>32400000</v>
+      </c>
+      <c r="L37" s="22">
+        <f t="shared" si="4"/>
+        <v>0.10802469135802469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>M1Summit</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>4000000</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="3"/>
+        <v>10800000</v>
+      </c>
+      <c r="I38" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B38,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="0"/>
+        <v>43200000</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="1"/>
+        <v>32400000</v>
+      </c>
+      <c r="L38" s="22">
+        <f t="shared" si="4"/>
+        <v>0.12345679012345678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>M1Ethos</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="20">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>700000</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="3"/>
+        <v>1550000</v>
+      </c>
+      <c r="I39" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B39,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="0"/>
+        <v>6200000</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="1"/>
+        <v>4650000</v>
+      </c>
+      <c r="L39" s="22">
+        <f t="shared" si="4"/>
+        <v>0.15053763440860216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>M1Ethos</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="20">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>600000</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="3"/>
+        <v>1550000</v>
+      </c>
+      <c r="I40" s="22">
+        <f>_xlfn.SINGLE(VLOOKUP(B40,$C$14:D$15,2,FALSE))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="0"/>
+        <v>6200000</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" si="1"/>
+        <v>4650000</v>
+      </c>
+      <c r="L40" s="22">
+        <f t="shared" si="4"/>
+        <v>0.12903225806451613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f t="shared" ref="A34:A41" si="5">CONCATENATE(C41,D41)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>